--- a/biology/Médecine/1803_en_santé_et_médecine/1803_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1803_en_santé_et_médecine/1803_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1803_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1803_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1803 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1803_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1803_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Évènements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10 mars : loi du 19 ventôse An XI, due à Antoine-François Fourcroy, qui réforme en France l'exercice de la médecine[1]. Elle « instaure deux grades dans l’exercice de la médecine (le doctorat et l’officiat[2]) ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10 mars : loi du 19 ventôse An XI, due à Antoine-François Fourcroy, qui réforme en France l'exercice de la médecine. Elle « instaure deux grades dans l’exercice de la médecine (le doctorat et l’officiat) ».
 3 août : création officielle de la Société de pharmacie de Paris, future Académie nationale de pharmacie.
-8 octobre : un décret du 15 vendémiaire an XI nomme Louis-Nicolas Vauquelin directeur de l'École de pharmacie de Paris, Jean-Nicolas Trusson, directeur adjoint et Jean-Pierre René Chéradame, trésorier[3].
-Le docteur Embry de Montpellier réalise le premier accouchement dans l'eau documenté d'une dame noble dans sa baignoire[4].</t>
+8 octobre : un décret du 15 vendémiaire an XI nomme Louis-Nicolas Vauquelin directeur de l'École de pharmacie de Paris, Jean-Nicolas Trusson, directeur adjoint et Jean-Pierre René Chéradame, trésorier.
+Le docteur Embry de Montpellier réalise le premier accouchement dans l'eau documenté d'une dame noble dans sa baignoire.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1803_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1803_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pierre Jean Georges Cabanis (1757-1808), Du degré de certitude de la médecine.
 Pierre-Jean-Baptiste Chomel, Abrégé de l'histoire des plantes usuelles : contenant leurs différens noms latins, français et vulgaires, leur dose, leurs principales compositions en pharmacie, et la manière de s'en servir.
@@ -553,7 +569,7 @@
 Jean Marc Gaspard Itard, Dissertation sur le pneumothorax ou les congestions gazeuses qui se forment dans la poitrine, thèse d'Itard, élève de René Laënnec, première description du pneumothorax.
 Dominique-Jean Larrey, Relation historique et chirurgicale de l'expédition de l'armée d'Orient, en Égypte et en Syrie.
 (en) Thomas Percival, Medical ethics, or a Code of institutes and precepts, adapted to the professional conduct of physicians and surgeons, première apparition de l'expression « éthique médicale ».
-Thomas Masterman Winterbottom (en) décrit la trypanosomiase humaine africaine, ou maladie du sommeil. Il décrit aussi l'état de la médecine en Sierra Leone[5].</t>
+Thomas Masterman Winterbottom (en) décrit la trypanosomiase humaine africaine, ou maladie du sommeil. Il décrit aussi l'état de la médecine en Sierra Leone.</t>
         </is>
       </c>
     </row>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1803_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1803_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,11 +597,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>14 février : John Thomas Perceval (mort en 1876), officier de l'armée britannique enfermé dans un asile d'aliénés pendant trois ans et qui a passé le reste de sa vie à faire campagne pour la réforme des lois sur l'internement.
 26 février : Arnold Adolph Berthold (mort en 1861), médecin, physiologiste et anatomiste allemand.
-23 avril : Alexandre Grigorievitch Fischer von Waldheim (mort en 1884), médecin, zoologiste et botaniste russe d'origine allemande, fils de Gotthelf Fischer von Waldheim (1771-1853) et père d'Alexandre Alexandrovitch Fischer von Waldheim (1839-1920)[6].</t>
+23 avril : Alexandre Grigorievitch Fischer von Waldheim (mort en 1884), médecin, zoologiste et botaniste russe d'origine allemande, fils de Gotthelf Fischer von Waldheim (1771-1853) et père d'Alexandre Alexandrovitch Fischer von Waldheim (1839-1920).</t>
         </is>
       </c>
     </row>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1803_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1803_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,13 +631,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>19 janvier : Marcus Herz (né en 1747), médecin et philosophe allemand[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19 janvier : Marcus Herz (né en 1747), médecin et philosophe allemand.
 11 février : Anton Freiherr von Störck (de) (né en 1731).
-13 février : Joseph de Carrère (né en 1740), fils de médecin, inspecteur général en 1773 des eaux minérales[8].
-25 juillet : Melchior Adam Weikard (de) (né en 1742), médecin et philosophe des Lumières[9].
-26 août : Antoine Quinquet (né en 1745), pharmacien français[10].</t>
+13 février : Joseph de Carrère (né en 1740), fils de médecin, inspecteur général en 1773 des eaux minérales.
+25 juillet : Melchior Adam Weikard (de) (né en 1742), médecin et philosophe des Lumières.
+26 août : Antoine Quinquet (né en 1745), pharmacien français.</t>
         </is>
       </c>
     </row>
